--- a/gama_codigo/models/resultados/finales/exp2-finales/merma_y_diferencia.xlsx
+++ b/gama_codigo/models/resultados/finales/exp2-finales/merma_y_diferencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shali\OneDrive\Escritorio\GAMA_1.8.1\tesis\gama_codigo\models\resultados\finales\exp2-finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6070530-747A-4C2A-93F1-9AB08482F3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85A0F0B-AE66-4A19-816A-8AA8A7378325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Producto</t>
   </si>
@@ -116,12 +116,21 @@
   </si>
   <si>
     <t>diferencia</t>
+  </si>
+  <si>
+    <t>diferencia2</t>
+  </si>
+  <si>
+    <t>merma2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,9 +457,11 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +480,14 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -490,8 +508,15 @@
         <f>B2/D2</f>
         <v>25.041159648727763</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="2">
+        <f>SUM((B2/D2),-1)</f>
+        <v>24.041159648727763</v>
+      </c>
+      <c r="H2" s="2">
+        <v>73.86378777961508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -512,8 +537,15 @@
         <f t="shared" ref="F3:F22" si="1">B3/D3</f>
         <v>57.286264697839762</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G22" si="2">SUM((B3/D3),-1)</f>
+        <v>56.286264697839762</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -534,8 +566,15 @@
         <f t="shared" si="1"/>
         <v>3056.9355688888891</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>3055.9355688888891</v>
+      </c>
+      <c r="H4" s="2">
+        <v>98.582251367568901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -556,8 +595,15 @@
         <f t="shared" si="1"/>
         <v>3584.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>3583.1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>95.081861375966554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -578,8 +624,15 @@
         <f t="shared" si="1"/>
         <v>52.470721143640908</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>51.470721143640908</v>
+      </c>
+      <c r="H6" s="2">
+        <v>81.458898233468048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -600,8 +653,15 @@
         <f t="shared" si="1"/>
         <v>0.30660349657176761</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.69339650342823234</v>
+      </c>
+      <c r="H7" s="2">
+        <v>69.961545206171834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -622,8 +682,15 @@
         <f t="shared" si="1"/>
         <v>1.6532108611416343</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>0.65321086114163429</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -644,8 +711,15 @@
         <f t="shared" si="1"/>
         <v>100.81472684766864</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>99.814726847668638</v>
+      </c>
+      <c r="H9" s="2">
+        <v>91.571922981036053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -666,8 +740,15 @@
         <f t="shared" si="1"/>
         <v>78.003703925938623</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>77.003703925938623</v>
+      </c>
+      <c r="H10" s="2">
+        <v>76.596377233138327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -688,8 +769,15 @@
         <f t="shared" si="1"/>
         <v>2.0211338822811831</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0211338822811831</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -710,8 +798,15 @@
         <f t="shared" si="1"/>
         <v>51.575236143289963</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>50.575236143289963</v>
+      </c>
+      <c r="H12" s="2">
+        <v>25.241712140403571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -732,8 +827,15 @@
         <f t="shared" si="1"/>
         <v>117.44424203161441</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>116.44424203161441</v>
+      </c>
+      <c r="H13" s="2">
+        <v>95.016721889253446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -754,8 +856,15 @@
         <f t="shared" si="1"/>
         <v>34.661942456341251</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>33.661942456341251</v>
+      </c>
+      <c r="H14" s="2">
+        <v>29.362692693358657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -776,8 +885,15 @@
         <f t="shared" si="1"/>
         <v>34.650133631534807</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>33.650133631534807</v>
+      </c>
+      <c r="H15" s="2">
+        <v>7.4092614178289331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -798,8 +914,15 @@
         <f t="shared" si="1"/>
         <v>742.62192771084335</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>741.62192771084335</v>
+      </c>
+      <c r="H16" s="2">
+        <v>90.812183487014224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -820,8 +943,15 @@
         <f t="shared" si="1"/>
         <v>9706.0807339449548</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>9705.0807339449548</v>
+      </c>
+      <c r="H17" s="2">
+        <v>75.804423369139258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -842,8 +972,15 @@
         <f t="shared" si="1"/>
         <v>1.2001069881530191</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20010698815301908</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -864,8 +1001,15 @@
         <f t="shared" si="1"/>
         <v>7.9493847783015648</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>6.9493847783015648</v>
+      </c>
+      <c r="H19" s="2">
+        <v>14.795400753443261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -886,8 +1030,15 @@
         <f t="shared" si="1"/>
         <v>1.3019185058332785</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.30191850583327851</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -908,8 +1059,15 @@
         <f t="shared" si="1"/>
         <v>283.4010282961205</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>282.4010282961205</v>
+      </c>
+      <c r="H21" s="2">
+        <v>97.922605127826216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -929,6 +1087,13 @@
       <c r="F22">
         <f t="shared" si="1"/>
         <v>13.091031210860619</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>12.091031210860619</v>
+      </c>
+      <c r="H22" s="2">
+        <v>32.782962149630457</v>
       </c>
     </row>
   </sheetData>
